--- a/public/bios.xlsx
+++ b/public/bios.xlsx
@@ -210,9 +210,6 @@
     <t>@paintedbat</t>
   </si>
   <si>
-    <t>www.blahkanas.wordpress.com</t>
-  </si>
-  <si>
     <t>Natkritta Hüppe</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t>@MagdaKersting</t>
   </si>
   <si>
-    <t>www.magdalenakersting.com</t>
-  </si>
-  <si>
     <t>Stefanie Ypma</t>
   </si>
   <si>
@@ -352,9 +346,6 @@
     <t>@kingmob84</t>
   </si>
   <si>
-    <t>www.revistakamandi.com</t>
-  </si>
-  <si>
     <t>Tadele Belay Tuli</t>
   </si>
   <si>
@@ -439,14 +430,23 @@
     <t xml:space="preserve">https://www.linkedin.com/in/alkimkutlu/ </t>
   </si>
   <si>
-    <t>www.alkimkutlu.com</t>
+    <t>https://blahkanas.wordpress.com/</t>
+  </si>
+  <si>
+    <t>http://www.magdalenakersting.com/</t>
+  </si>
+  <si>
+    <t>http://www.revistakamandi.com/</t>
+  </si>
+  <si>
+    <t>http://www.alkimkutlu.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -494,6 +494,12 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -518,10 +524,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -535,8 +542,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -755,8 +764,8 @@
   </sheetPr>
   <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="I5" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1125,13 +1134,13 @@
       <c r="J10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>63</v>
+      <c r="O10" s="11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("SPLIT(B11,"" "")"),"Natkritta")</f>
@@ -1144,20 +1153,20 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="L11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -1165,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="4" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("SPLIT(B12,"" "")"),"Caoileann")</f>
@@ -1178,20 +1187,20 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="L12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="O12" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -1199,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="4" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("SPLIT(B13,"" "")"),"Magdalena")</f>
@@ -1212,17 +1221,17 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>293</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="4">
-        <f t="shared" si="0"/>
-        <v>293</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>77</v>
+      <c r="O13" s="11" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
@@ -1230,7 +1239,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="4" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("SPLIT(B14,"" "")"),"Stefanie")</f>
@@ -1243,22 +1252,22 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="0"/>
-        <v>273</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" s="4" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("SPLIT(B15,"" "")"),"Lisa")</f>
@@ -1271,25 +1280,25 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="4">
-        <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="O15" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C16" s="4" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("SPLIT(B16,"" "")"),"Alex")</f>
@@ -1300,13 +1309,13 @@
         <v>Mchedlishvili</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="0"/>
@@ -1318,40 +1327,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="J17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C18" s="4" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("SPLIT(B18,"" "")"),"Vivek")</f>
@@ -1362,23 +1371,23 @@
         <v>Devulapalli</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="L18" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="0"/>
-        <v>258</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1386,7 +1395,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C19" s="4" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("SPLIT(B19,"" "")"),"Amadeo")</f>
@@ -1397,56 +1406,56 @@
         <v>Gandolfo</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="0"/>
-        <v>274</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>110</v>
+      <c r="O19" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="G20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="L20" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="O20" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1454,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C21" s="4" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("SPLIT(B21,"" "")"),"Flavio")</f>
@@ -1465,34 +1474,34 @@
         <v>Baccari</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="L21" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H21" s="4">
-        <f t="shared" si="0"/>
-        <v>212</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="O21" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C22" s="4" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("SPLIT(B22,"" "")"),"Ina")</f>
@@ -1503,21 +1512,21 @@
         <v>Gawel</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C23" s="4" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("SPLIT(B23,"" "")"),"Alkım")</f>
@@ -1528,27 +1537,27 @@
         <v>Kutlu</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H23" s="4">
         <v>229</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="O23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="O23" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1564,22 +1573,22 @@
     <hyperlink ref="L7" r:id="rId8"/>
     <hyperlink ref="L8" r:id="rId9"/>
     <hyperlink ref="O8" r:id="rId10"/>
-    <hyperlink ref="O10" r:id="rId11"/>
-    <hyperlink ref="L11" r:id="rId12"/>
-    <hyperlink ref="L12" r:id="rId13"/>
-    <hyperlink ref="O12" r:id="rId14"/>
-    <hyperlink ref="O13" r:id="rId15"/>
-    <hyperlink ref="O14" r:id="rId16"/>
-    <hyperlink ref="O15" r:id="rId17"/>
-    <hyperlink ref="L17" r:id="rId18"/>
-    <hyperlink ref="L18" r:id="rId19"/>
-    <hyperlink ref="O19" r:id="rId20"/>
-    <hyperlink ref="L20" r:id="rId21"/>
-    <hyperlink ref="O20" r:id="rId22"/>
-    <hyperlink ref="L21" r:id="rId23"/>
-    <hyperlink ref="O21" r:id="rId24"/>
-    <hyperlink ref="L23" r:id="rId25"/>
-    <hyperlink ref="O23" r:id="rId26"/>
+    <hyperlink ref="L11" r:id="rId11"/>
+    <hyperlink ref="L12" r:id="rId12"/>
+    <hyperlink ref="O12" r:id="rId13"/>
+    <hyperlink ref="O13" r:id="rId14"/>
+    <hyperlink ref="O14" r:id="rId15"/>
+    <hyperlink ref="O15" r:id="rId16"/>
+    <hyperlink ref="L17" r:id="rId17"/>
+    <hyperlink ref="L18" r:id="rId18"/>
+    <hyperlink ref="O19" r:id="rId19"/>
+    <hyperlink ref="L20" r:id="rId20"/>
+    <hyperlink ref="O20" r:id="rId21"/>
+    <hyperlink ref="L21" r:id="rId22"/>
+    <hyperlink ref="O21" r:id="rId23"/>
+    <hyperlink ref="L23" r:id="rId24"/>
+    <hyperlink ref="O23" r:id="rId25"/>
+    <hyperlink ref="O10" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
